--- a/Assets/StreamingAssets/WrongChoice6.xlsx
+++ b/Assets/StreamingAssets/WrongChoice6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08A3232-E941-0A4A-BD41-01FAEAE7F405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BB0001-9B38-3D46-8E4C-297ED2DF1E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13680" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,15 +153,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>When you pointed out the killer just now, one person reacted rather unnaturally.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Think back to this person’s testimony from last night.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Try to spot the contradiction in this person’s statement.</t>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(When you pointed out the killer just now, one person reacted rather unnaturally.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Think back to this person’s testimony from last night.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Try to spot the contradiction in this person’s statement.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,7 +561,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -655,7 +655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="17">
+    <row r="3" spans="1:16" ht="34">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -675,7 +675,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:16" ht="17">
+    <row r="4" spans="1:16" ht="34">
       <c r="A4" t="s">
         <v>20</v>
       </c>
